--- a/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,6 +316,15 @@
   <si>
     <t>CASUAL</t>
   </si>
+  <si>
+    <t>10/23,24,25/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/7,12,18,22/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -551,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,12 +708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,7 +1259,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K264" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K266" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1615,12 +1618,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K264"/>
+  <dimension ref="A2:K266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88:B94"/>
+      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,62 +1645,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1723,18 +1726,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1781,7 +1784,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>56.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1791,7 +1794,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>50.25</v>
+        <v>50.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2057,7 +2060,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.958</v>
+        <v>99.457999999999998</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -2082,7 +2085,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.958</v>
+        <v>99.457999999999998</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -2107,7 +2110,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.958</v>
+        <v>99.457999999999998</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -2158,7 +2161,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.958</v>
+        <v>99.457999999999998</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -2387,7 +2390,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="37">
         <v>7</v>
       </c>
       <c r="I34" s="9"/>
@@ -2409,7 +2412,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="37">
         <v>1</v>
       </c>
       <c r="I35" s="9"/>
@@ -2431,7 +2434,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="52">
+      <c r="H36" s="37">
         <v>2</v>
       </c>
       <c r="I36" s="9"/>
@@ -2457,7 +2460,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H37" s="52">
+      <c r="H37" s="37">
         <v>2</v>
       </c>
       <c r="I37" s="9"/>
@@ -2479,7 +2482,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="37">
         <v>2</v>
       </c>
       <c r="I38" s="9"/>
@@ -2505,7 +2508,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H39" s="52">
+      <c r="H39" s="37">
         <v>1</v>
       </c>
       <c r="I39" s="9"/>
@@ -2544,7 +2547,7 @@
       <c r="A41" s="38">
         <v>43647</v>
       </c>
-      <c r="B41" s="51"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
@@ -3706,27 +3709,37 @@
       <c r="A97" s="38">
         <v>45200</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="37"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="37"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="37">
+        <v>1</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="45">
+        <v>45205</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="38">
-        <v>45231</v>
-      </c>
-      <c r="B98" s="20"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C98" s="13"/>
-      <c r="D98" s="37"/>
+      <c r="D98" s="37">
+        <v>3</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
@@ -3736,33 +3749,47 @@
       <c r="H98" s="37"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="45" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
-        <v>45261</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="37"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="37"/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H99" s="37">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="45">
+        <v>45240</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
-        <v>45292</v>
-      </c>
-      <c r="B100" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="37"/>
+      <c r="D100" s="37">
+        <v>4</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -3772,11 +3799,13 @@
       <c r="H100" s="37"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="38">
-        <v>45323</v>
+      <c r="A101" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3794,7 +3823,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3812,7 +3841,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3830,7 +3859,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3848,7 +3877,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3866,7 +3895,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3884,7 +3913,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3902,7 +3931,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3920,7 +3949,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3938,7 +3967,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3956,7 +3985,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3974,7 +4003,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3992,7 +4021,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4010,7 +4039,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4028,7 +4057,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4046,7 +4075,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4064,7 +4093,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4082,7 +4111,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4100,7 +4129,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4118,7 +4147,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4136,7 +4165,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4154,7 +4183,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4172,7 +4201,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4190,7 +4219,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4208,7 +4237,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4226,7 +4255,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4244,7 +4273,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4262,7 +4291,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4280,7 +4309,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4298,7 +4327,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4316,7 +4345,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4334,7 +4363,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4352,7 +4381,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4370,7 +4399,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4388,7 +4417,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4406,7 +4435,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4424,7 +4453,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4442,7 +4471,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4460,7 +4489,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4478,7 +4507,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4495,7 +4524,9 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
+      <c r="A141" s="38">
+        <v>46478</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="37"/>
@@ -4511,7 +4542,9 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
+      <c r="A142" s="38">
+        <v>46508</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="37"/>
@@ -6463,20 +6496,52 @@
       <c r="K263" s="20"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="39"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="40"/>
-      <c r="D264" s="41"/>
+      <c r="A264" s="38"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="37"/>
       <c r="E264" s="9"/>
-      <c r="F264" s="15"/>
-      <c r="G264" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H264" s="41"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H264" s="37"/>
       <c r="I264" s="9"/>
-      <c r="J264" s="12"/>
-      <c r="K264" s="15"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="20"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="38"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="37"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H265" s="37"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="20"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="39"/>
+      <c r="B266" s="15"/>
+      <c r="C266" s="40"/>
+      <c r="D266" s="41"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H266" s="41"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="12"/>
+      <c r="K266" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6526,9 +6591,9 @@
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6550,60 +6615,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6629,18 +6694,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6739,7 +6804,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H11" s="52"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="45">
@@ -6763,7 +6828,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
@@ -6787,7 +6852,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="45">
@@ -6807,7 +6872,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="45">
@@ -6831,7 +6896,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H15" s="52"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="45">
@@ -6855,7 +6920,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
       <c r="K16" s="45">
@@ -6877,7 +6942,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
@@ -6897,7 +6962,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
@@ -8869,17 +8934,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8958,12 +9023,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="50"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="47">
